--- a/biology/Botanique/Agathis/Agathis.xlsx
+++ b/biology/Botanique/Agathis/Agathis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathis est un genre de plantes gymnospermes de la famille des Araucariacées  qui comprend une vingtaine d'espèces.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stature
-Les arbres peuvent atteindre une grande taille avec peu ou pas de branchage jusqu'à une certaine hauteur. Les jeunes arbres ont habituellement une forme conique. Avec l'âge, la cime s'arrondit ou se déforme. L'écorce a un aspect irrégulièrement écaillé et s'épaissit à mesure que l'arbre vieillit. Sa couleur va du gris clair au gris brun.
-Branches et feuilles
-Les branches poussent souvent à l’horizontale. Les branches les plus basses qui tombent, laissent derrière elles une cicatrice circulaire.
-Les feuilles adultes ont une forme elliptique, voir linéaire avec un limbe très coriace et assez épais. Les jeunes feuilles sont, en revanche, plus larges et leur forme est, selon l'espèce, plus ou moins ovale ou lancéolée. Elles ont une couleur rouge cuivrée qui contraste fortement avec la couleur généralement verte ou bleue verte des feuilles de la saison précédente.
+          <t>Stature</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres peuvent atteindre une grande taille avec peu ou pas de branchage jusqu'à une certaine hauteur. Les jeunes arbres ont habituellement une forme conique. Avec l'âge, la cime s'arrondit ou se déforme. L'écorce a un aspect irrégulièrement écaillé et s'épaissit à mesure que l'arbre vieillit. Sa couleur va du gris clair au gris brun.
 </t>
         </is>
       </c>
@@ -543,15 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biogéographie et évolution</t>
+          <t>Morphologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution naturelle actuelle
-Les espèces se trouvent dans la région pacifique de la Malaisie, l'Indonésie, les Philippines, la Mélanésie, l'Australie et la Nouvelle-Zélande. Cinq espèces sont endémiques de la Nouvelle-Calédonie, appelées alors localement « Kaori »[1], mais ce nom est également usité en Nouvelle-Zélande (kauri)[2]. Elles poussent dans les forêts tropicales humides et les forêts de mousson jusqu'à une altitude de 2 500 mètres sur des sols sableux, calcareux, siliceux voire volcaniques. Ce sont souvent les plus gros et les plus épais arbres de leur environnement.
-Histoire évolutive
-L'agathis est un genre relativement jeune, qui est apparu durant l'ère Mésozoïque[3]. Il était très abondant durant le Jurassique.
+          <t>Branches et feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les branches poussent souvent à l’horizontale. Les branches les plus basses qui tombent, laissent derrière elles une cicatrice circulaire.
+Les feuilles adultes ont une forme elliptique, voir linéaire avec un limbe très coriace et assez épais. Les jeunes feuilles sont, en revanche, plus larges et leur forme est, selon l'espèce, plus ou moins ovale ou lancéolée. Elles ont une couleur rouge cuivrée qui contraste fortement avec la couleur généralement verte ou bleue verte des feuilles de la saison précédente.
 </t>
         </is>
       </c>
@@ -577,13 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cycle de vie</t>
+          <t>Biogéographie et évolution</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
-La pollinisation a lieu généralement après l'apparition des cônes sur les arbres adultes. Les cônes femelles poussent la plupart du temps sur de courtes branches latérales et arrivent à maturité après deux ans. Leur forme est ordinairement ovale ou sphérique.
+          <t>Distribution naturelle actuelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces se trouvent dans la région pacifique de la Malaisie, l'Indonésie, les Philippines, la Mélanésie, l'Australie et la Nouvelle-Zélande. Cinq espèces sont endémiques de la Nouvelle-Calédonie, appelées alors localement « Kaori », mais ce nom est également usité en Nouvelle-Zélande (kauri). Elles poussent dans les forêts tropicales humides et les forêts de mousson jusqu'à une altitude de 2 500 mètres sur des sols sableux, calcareux, siliceux voire volcaniques. Ce sont souvent les plus gros et les plus épais arbres de leur environnement.
 </t>
         </is>
       </c>
@@ -609,13 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie</t>
+          <t>Biogéographie et évolution</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ennemis
-Les chenilles de papillons de la famille des Agathiphagas se nourrissent des graines de certaines espèces.
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agathis est un genre relativement jeune, qui est apparu durant l'ère Mésozoïque. Il était très abondant durant le Jurassique.
 </t>
         </is>
       </c>
@@ -641,18 +669,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Usages</t>
+          <t>Cycle de vie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ébénisterie
-L’agathis est un bois au grain droit et à la texture fine, lisse et soyeuse. Sa surface est brillante et présente une teinte uniforme qui va du jaune paille au brun jaunâtre. Comme il est léger, solide, sans nœuds et facile à travailler, le bois d’agathis est demandé dans diverses industries et l'approvisionnement actuel provient presque entièrement de plantations forestières. Il est utilisé dans la construction de navires et de maisons, la production de meubles, de gobans, de guitares, de traverses, de supports et de panneaux de lambris.
-En Nouvelle-Calédonie, cet arbre était couramment utilisé pour fabriquer des pirogues, des sculptures et des poutres pour les cases[4].
-Pharmacopée
-En Nouvelle-Calédonie, l'écorce et les feuilles sont traditionnellement utilisées en décoction[4].
-Résine
-Certaines espèces sécrètent une résine transparente ou blanche, comme le copal et la résine de Damar, qui est extraite et utilisée dans différents domaines.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pollinisation a lieu généralement après l'apparition des cônes sur les arbres adultes. Les cônes femelles poussent la plupart du temps sur de courtes branches latérales et arrivent à maturité après deux ans. Leur forme est ordinairement ovale ou sphérique.
 </t>
         </is>
       </c>
@@ -678,12 +706,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Symbolique</t>
+          <t>Écologie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, dans certaines régions de la Grande Terre, cet arbre symbolise le lignage de haut rang. Dans l'aire paîci et à Koumac, son fruit symbolise les clans unis autour de la chefferie[4].
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles de papillons de la famille des Agathiphagas se nourrissent des graines de certaines espèces.
 </t>
         </is>
       </c>
@@ -709,12 +743,159 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ébénisterie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’agathis est un bois au grain droit et à la texture fine, lisse et soyeuse. Sa surface est brillante et présente une teinte uniforme qui va du jaune paille au brun jaunâtre. Comme il est léger, solide, sans nœuds et facile à travailler, le bois d’agathis est demandé dans diverses industries et l'approvisionnement actuel provient presque entièrement de plantations forestières. Il est utilisé dans la construction de navires et de maisons, la production de meubles, de gobans, de guitares, de traverses, de supports et de panneaux de lambris.
+En Nouvelle-Calédonie, cet arbre était couramment utilisé pour fabriquer des pirogues, des sculptures et des poutres pour les cases.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, l'écorce et les feuilles sont traditionnellement utilisées en décoction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Résine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sécrètent une résine transparente ou blanche, comme le copal et la résine de Damar, qui est extraite et utilisée dans différents domaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, dans certaines régions de la Grande Terre, cet arbre symbolise le lignage de haut rang. Dans l'aire paîci et à Koumac, son fruit symbolise les clans unis autour de la chefferie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[5]   30 octobre 2012
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   30 octobre 2012
 Agathis alba (Lam.) Foxw., (1910)
 Agathis atropurpurea Hyland, (1978)
 Agathis australis (D.Don) Lindl., (1829)
@@ -741,33 +922,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Agathis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agathis</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[5] 30 octobre 2012
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 30 octobre 2012
 Agathis alba Jeffrey = Agathis dammara (Lamb.) Rich. &amp; A.Rich., (1826)
 Agathis beccarii Warb. = Agathis borneensis Warb., (1900)
 Agathis beckingii Meijer Drees = Agathis borneensis Warb., (1900)
@@ -801,33 +984,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Agathis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agathis</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agathis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[5] 30 octobre 2012
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 30 octobre 2012
 Agathis macrostrobila Merr.
 Agathis philippinensis Warb.
 Agathis spinulosa Warb.</t>
